--- a/REI/rei_cust_Configuration_Prod_MySQL_Build_V2.xlsx
+++ b/REI/rei_cust_Configuration_Prod_MySQL_Build_V2.xlsx
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="291">
   <si>
     <t>TESTCASE_ID</t>
   </si>
@@ -951,12 +951,6 @@
     <t>C:\framework\rei_sql_basha</t>
   </si>
   <si>
-    <t>MYSQL:prod-dm-db.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:rei_mdsdb:shamna:Num3r!fyv</t>
-  </si>
-  <si>
-    <t>MYSQL:prod-dm-db.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:rei_workdb:shamna:Num3r!fy</t>
-  </si>
-  <si>
     <t>rei_etl</t>
   </si>
   <si>
@@ -967,6 +961,117 @@
   </si>
   <si>
     <t>sla_category.sql</t>
+  </si>
+  <si>
+    <t>MYSQL:prod-dm-jaguar.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:rei_mdsdb:e_rei:LDBproddbdev</t>
+  </si>
+  <si>
+    <t>MYSQL:prod-dm-jaguar.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:rei_mdwdb:e_rei:LDBproddbdev</t>
+  </si>
+  <si>
+    <t>Tc_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_time_entry :Check f_time_entry row_id  data </t>
+  </si>
+  <si>
+    <t>f_time_entry</t>
+  </si>
+  <si>
+    <t>f_time_entry.sql</t>
+  </si>
+  <si>
+    <t>Tc_11</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check f_time_entry count</t>
+  </si>
+  <si>
+    <t>f_time_entry_count.sql</t>
+  </si>
+  <si>
+    <t>Tc_12</t>
+  </si>
+  <si>
+    <t>state_src_key</t>
+  </si>
+  <si>
+    <t>state_src_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_13</t>
+  </si>
+  <si>
+    <t>category_src_key</t>
+  </si>
+  <si>
+    <t>category_src_key.sql</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check category_src_key data</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check state_src_key data</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check charge_type_key  data</t>
+  </si>
+  <si>
+    <t>charge_type_key</t>
+  </si>
+  <si>
+    <t>charge_type_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_14</t>
+  </si>
+  <si>
+    <t>Tc_15</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check task_key  data</t>
+  </si>
+  <si>
+    <t>task_key</t>
+  </si>
+  <si>
+    <t>task_key.sql</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check project_key  data</t>
+  </si>
+  <si>
+    <t>project_key</t>
+  </si>
+  <si>
+    <t>project_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_16</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check date_key  data</t>
+  </si>
+  <si>
+    <t>date_key</t>
+  </si>
+  <si>
+    <t>date_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_17</t>
+  </si>
+  <si>
+    <t>f_time_entry :Check user_key  data</t>
+  </si>
+  <si>
+    <t>user_key</t>
+  </si>
+  <si>
+    <t>user_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_18</t>
   </si>
 </sst>
 </file>
@@ -2100,19 +2205,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2120,23 +2225,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2603,8 +2708,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S1146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M9" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3140,7 @@
     </row>
     <row r="10" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="57" t="s">
@@ -3048,7 +3153,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="57" t="s">
         <v>69</v>
@@ -3071,197 +3176,395 @@
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
       <c r="Q10" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
     </row>
     <row r="11" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="47" t="s">
+        <v>256</v>
+      </c>
       <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+      <c r="C11" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="60"/>
+      <c r="L11" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="35" t="s">
+        <v>259</v>
+      </c>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
     </row>
     <row r="12" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="47" t="s">
+        <v>260</v>
+      </c>
       <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="C12" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="60"/>
+      <c r="L12" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="35" t="s">
+        <v>262</v>
+      </c>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
     </row>
     <row r="13" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="47" t="s">
+        <v>263</v>
+      </c>
       <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="C13" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="60"/>
+      <c r="L13" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="N13" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
-      <c r="Q13" s="35"/>
+      <c r="Q13" s="35" t="s">
+        <v>265</v>
+      </c>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
     </row>
     <row r="14" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="47" t="s">
+        <v>266</v>
+      </c>
       <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="C14" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="60"/>
+      <c r="L14" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="N14" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O14" s="57"/>
       <c r="P14" s="57"/>
-      <c r="Q14" s="35"/>
+      <c r="Q14" s="35" t="s">
+        <v>268</v>
+      </c>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
     </row>
     <row r="15" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="47" t="s">
+        <v>274</v>
+      </c>
       <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="C15" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="60"/>
+      <c r="L15" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
-      <c r="Q15" s="35"/>
+      <c r="Q15" s="35" t="s">
+        <v>273</v>
+      </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
     </row>
     <row r="16" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="47" t="s">
+        <v>275</v>
+      </c>
       <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="C16" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="60"/>
+      <c r="L16" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
-      <c r="Q16" s="35"/>
+      <c r="Q16" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57"/>
     </row>
     <row r="17" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="47" t="s">
+        <v>282</v>
+      </c>
       <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="60"/>
+      <c r="L17" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O17" s="57"/>
       <c r="P17" s="57"/>
-      <c r="Q17" s="35"/>
+      <c r="Q17" s="35" t="s">
+        <v>281</v>
+      </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57"/>
     </row>
     <row r="18" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="47" t="s">
+        <v>286</v>
+      </c>
       <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
+      <c r="C18" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="60"/>
+      <c r="L18" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
-      <c r="Q18" s="35"/>
+      <c r="Q18" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57"/>
     </row>
     <row r="19" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="47" t="s">
+        <v>290</v>
+      </c>
       <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="C19" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="60"/>
+      <c r="L19" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O19" s="57"/>
       <c r="P19" s="57"/>
-      <c r="Q19" s="35"/>
+      <c r="Q19" s="35" t="s">
+        <v>289</v>
+      </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57"/>
     </row>
@@ -27330,8 +27633,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27523,7 +27826,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>90</v>
@@ -27534,7 +27837,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>90</v>
@@ -27545,7 +27848,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>91</v>
@@ -27589,7 +27892,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>66</v>

--- a/REI/rei_cust_Configuration_Prod_MySQL_Build_V2.xlsx
+++ b/REI/rei_cust_Configuration_Prod_MySQL_Build_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="510" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="510" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="8" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="346">
   <si>
     <t>TESTCASE_ID</t>
   </si>
@@ -852,9 +852,6 @@
     <t>MySQL Tests for netflix in Prod Dev</t>
   </si>
   <si>
-    <t>MYSQL:prod-dm-db.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:app_test:shamna:Num3r!fy</t>
-  </si>
-  <si>
     <t>f_problem</t>
   </si>
   <si>
@@ -1072,6 +1069,174 @@
   </si>
   <si>
     <t>Tc_18</t>
+  </si>
+  <si>
+    <t>Tc_19</t>
+  </si>
+  <si>
+    <t>d_change_request :Check change_closed_as_c  data WRT  change_request_final</t>
+  </si>
+  <si>
+    <t>d_change_request</t>
+  </si>
+  <si>
+    <t>change_closed_as_c</t>
+  </si>
+  <si>
+    <t>change_closed_as_c.sql</t>
+  </si>
+  <si>
+    <t>Tc_20</t>
+  </si>
+  <si>
+    <t>d_internal_organizationt :Check director_c_key  data WRT  sys_user_group_final and d_internal_contact</t>
+  </si>
+  <si>
+    <t>d_internal_organization</t>
+  </si>
+  <si>
+    <t>director_c_key</t>
+  </si>
+  <si>
+    <t>director_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_21</t>
+  </si>
+  <si>
+    <t>d_internal_organization :Check director_name_c  data WRT  d_internal_contact</t>
+  </si>
+  <si>
+    <t>director_name_c.sql</t>
+  </si>
+  <si>
+    <t>director_name_c</t>
+  </si>
+  <si>
+    <t>Tc_22</t>
+  </si>
+  <si>
+    <t>d_project :Check division_src_c_key  data WRT  pm_project_final and d_lov</t>
+  </si>
+  <si>
+    <t>d_project</t>
+  </si>
+  <si>
+    <t>division_src_c_key</t>
+  </si>
+  <si>
+    <t>division_src_c_key.sql</t>
+  </si>
+  <si>
+    <t>d_project :Check it_director_c_key  data WRT  pm_project_final and d_internal_contact</t>
+  </si>
+  <si>
+    <t>it_director_c_key</t>
+  </si>
+  <si>
+    <t>it_director_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_23</t>
+  </si>
+  <si>
+    <t>Tc_24</t>
+  </si>
+  <si>
+    <t>d_project :Check manager_c_key  data WRT  pm_project_final and d_internal_contact</t>
+  </si>
+  <si>
+    <t>manager_c_key</t>
+  </si>
+  <si>
+    <t>manager_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_25</t>
+  </si>
+  <si>
+    <t>d_project :Check priority_src_c_key  data WRT  pm_project_final and d_lov</t>
+  </si>
+  <si>
+    <t>priority_src_c_key</t>
+  </si>
+  <si>
+    <t>priority_src_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_26</t>
+  </si>
+  <si>
+    <t>d_project :Check requestor_c_key  data WRT  pm_project_final and d_internal_contact</t>
+  </si>
+  <si>
+    <t>requestor_c_key</t>
+  </si>
+  <si>
+    <t>requestor_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_27</t>
+  </si>
+  <si>
+    <t>d_project :Check sponsor_c_key  data WRT  pm_project_final and d_internal_contact</t>
+  </si>
+  <si>
+    <t>sponsor_c_key</t>
+  </si>
+  <si>
+    <t>sponsor_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_28</t>
+  </si>
+  <si>
+    <t>d_project :Check stage_src_c_key  data WRT  pm_project_final and d_lov</t>
+  </si>
+  <si>
+    <t>stage_src_c_key</t>
+  </si>
+  <si>
+    <t>stage_src_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_29</t>
+  </si>
+  <si>
+    <t>d_project :Check status_src_c_key  data WRT  pm_project_final and d_lov</t>
+  </si>
+  <si>
+    <t>status_src_c_key</t>
+  </si>
+  <si>
+    <t>status_src_c_key.sql</t>
+  </si>
+  <si>
+    <t>Tc_30</t>
+  </si>
+  <si>
+    <t>d_project :Check portfolio_owner  data WRT  pm_project_final,pm_portfolio_final and sys_user_final</t>
+  </si>
+  <si>
+    <t>portfolio_owner</t>
+  </si>
+  <si>
+    <t>portfolio_owner.sql</t>
+  </si>
+  <si>
+    <t>Tc_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_project :Check portfolio_name  data WRT  pm_project_final,pm_portfolio_final </t>
+  </si>
+  <si>
+    <t>portfolio_name</t>
+  </si>
+  <si>
+    <t>portfolio_name.sql</t>
+  </si>
+  <si>
+    <t>MYSQL:prod-dm-db.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:app_test:mabubasha:Sigm@info1</t>
   </si>
 </sst>
 </file>
@@ -2205,19 +2370,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2225,23 +2390,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2708,8 +2873,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S1146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" topLeftCell="O30" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,7 +2974,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>69</v>
@@ -2824,7 +2989,7 @@
         <v>207</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>208</v>
@@ -2832,7 +2997,7 @@
       <c r="O2" s="57"/>
       <c r="P2" s="57"/>
       <c r="Q2" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R2" s="57"/>
       <c r="S2" s="57"/>
@@ -2852,7 +3017,7 @@
         <v>115</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>69</v>
@@ -2867,7 +3032,7 @@
         <v>214</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N3" s="60" t="s">
         <v>209</v>
@@ -2875,7 +3040,7 @@
       <c r="O3" s="57"/>
       <c r="P3" s="57"/>
       <c r="Q3" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R3" s="57"/>
       <c r="S3" s="57"/>
@@ -2895,7 +3060,7 @@
         <v>115</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="57" t="s">
         <v>69</v>
@@ -2907,10 +3072,10 @@
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
       <c r="L4" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="57" t="s">
         <v>218</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>219</v>
       </c>
       <c r="N4" s="60" t="s">
         <v>210</v>
@@ -2918,14 +3083,14 @@
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
       <c r="Q4" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R4" s="57"/>
       <c r="S4" s="57"/>
     </row>
     <row r="5" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57" t="s">
@@ -2938,7 +3103,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>69</v>
@@ -2953,7 +3118,7 @@
         <v>207</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N5" s="60" t="s">
         <v>210</v>
@@ -2961,7 +3126,7 @@
       <c r="O5" s="57"/>
       <c r="P5" s="57"/>
       <c r="Q5" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R5" s="57"/>
       <c r="S5" s="57"/>
@@ -2981,7 +3146,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G6" s="57" t="s">
         <v>69</v>
@@ -2993,10 +3158,10 @@
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
       <c r="L6" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="57" t="s">
         <v>236</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>237</v>
       </c>
       <c r="N6" s="60" t="s">
         <v>209</v>
@@ -3004,7 +3169,7 @@
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
@@ -3024,7 +3189,7 @@
         <v>115</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>69</v>
@@ -3036,10 +3201,10 @@
       <c r="J7" s="57"/>
       <c r="K7" s="57"/>
       <c r="L7" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M7" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N7" s="60" t="s">
         <v>212</v>
@@ -3047,7 +3212,7 @@
       <c r="O7" s="57"/>
       <c r="P7" s="57"/>
       <c r="Q7" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -3067,7 +3232,7 @@
         <v>115</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G8" s="57" t="s">
         <v>69</v>
@@ -3082,7 +3247,7 @@
         <v>214</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N8" s="60" t="s">
         <v>215</v>
@@ -3090,14 +3255,14 @@
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
       <c r="Q8" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="57"/>
     </row>
     <row r="9" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
@@ -3110,7 +3275,7 @@
         <v>115</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="57" t="s">
         <v>69</v>
@@ -3125,7 +3290,7 @@
         <v>214</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N9" s="60" t="s">
         <v>215</v>
@@ -3133,14 +3298,14 @@
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="57"/>
     </row>
     <row r="10" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="57" t="s">
@@ -3153,7 +3318,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" s="57" t="s">
         <v>69</v>
@@ -3165,10 +3330,10 @@
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
       <c r="L10" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M10" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N10" s="60" t="s">
         <v>215</v>
@@ -3176,14 +3341,14 @@
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
       <c r="Q10" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R10" s="57"/>
       <c r="S10" s="57"/>
     </row>
     <row r="11" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="57" t="s">
@@ -3196,7 +3361,7 @@
         <v>115</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>69</v>
@@ -3208,10 +3373,10 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M11" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N11" s="60" t="s">
         <v>215</v>
@@ -3219,14 +3384,14 @@
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R11" s="57"/>
       <c r="S11" s="57"/>
     </row>
     <row r="12" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="57" t="s">
@@ -3239,7 +3404,7 @@
         <v>115</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" s="57" t="s">
         <v>69</v>
@@ -3251,10 +3416,10 @@
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N12" s="60" t="s">
         <v>215</v>
@@ -3262,14 +3427,14 @@
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
       <c r="Q12" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R12" s="57"/>
       <c r="S12" s="57"/>
     </row>
     <row r="13" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="57" t="s">
@@ -3282,7 +3447,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>69</v>
@@ -3294,10 +3459,10 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N13" s="60" t="s">
         <v>215</v>
@@ -3305,14 +3470,14 @@
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
     </row>
     <row r="14" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="57" t="s">
@@ -3325,7 +3490,7 @@
         <v>115</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G14" s="57" t="s">
         <v>69</v>
@@ -3337,10 +3502,10 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
       <c r="L14" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M14" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N14" s="60" t="s">
         <v>215</v>
@@ -3348,14 +3513,14 @@
       <c r="O14" s="57"/>
       <c r="P14" s="57"/>
       <c r="Q14" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
     </row>
     <row r="15" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="57" t="s">
@@ -3368,7 +3533,7 @@
         <v>115</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="57" t="s">
         <v>69</v>
@@ -3380,10 +3545,10 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M15" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N15" s="60" t="s">
         <v>215</v>
@@ -3391,14 +3556,14 @@
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="57"/>
     </row>
     <row r="16" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="57" t="s">
@@ -3411,7 +3576,7 @@
         <v>115</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G16" s="57" t="s">
         <v>69</v>
@@ -3423,10 +3588,10 @@
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M16" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N16" s="60" t="s">
         <v>215</v>
@@ -3434,14 +3599,14 @@
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
       <c r="Q16" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="57"/>
     </row>
     <row r="17" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="57" t="s">
@@ -3454,7 +3619,7 @@
         <v>115</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G17" s="57" t="s">
         <v>69</v>
@@ -3466,10 +3631,10 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
       <c r="L17" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M17" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N17" s="60" t="s">
         <v>215</v>
@@ -3477,14 +3642,14 @@
       <c r="O17" s="57"/>
       <c r="P17" s="57"/>
       <c r="Q17" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R17" s="57"/>
       <c r="S17" s="57"/>
     </row>
     <row r="18" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="57" t="s">
@@ -3497,7 +3662,7 @@
         <v>115</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G18" s="57" t="s">
         <v>69</v>
@@ -3509,10 +3674,10 @@
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M18" s="57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N18" s="60" t="s">
         <v>215</v>
@@ -3520,14 +3685,14 @@
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
       <c r="Q18" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="57"/>
     </row>
     <row r="19" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="57" t="s">
@@ -3540,7 +3705,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G19" s="57" t="s">
         <v>69</v>
@@ -3552,10 +3717,10 @@
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M19" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N19" s="60" t="s">
         <v>215</v>
@@ -3563,283 +3728,569 @@
       <c r="O19" s="57"/>
       <c r="P19" s="57"/>
       <c r="Q19" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="57"/>
     </row>
     <row r="20" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="47" t="s">
+        <v>290</v>
+      </c>
       <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="C20" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="60"/>
+      <c r="L20" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="N20" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O20" s="57"/>
       <c r="P20" s="57"/>
-      <c r="Q20" s="35"/>
+      <c r="Q20" s="35" t="s">
+        <v>294</v>
+      </c>
       <c r="R20" s="57"/>
       <c r="S20" s="57"/>
     </row>
     <row r="21" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="47" t="s">
+        <v>295</v>
+      </c>
       <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="C21" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="60"/>
+      <c r="L21" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="N21" s="60" t="s">
+        <v>215</v>
+      </c>
       <c r="O21" s="57"/>
       <c r="P21" s="57"/>
-      <c r="Q21" s="35"/>
+      <c r="Q21" s="35" t="s">
+        <v>299</v>
+      </c>
       <c r="R21" s="57"/>
       <c r="S21" s="57"/>
     </row>
-    <row r="22" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-    </row>
-    <row r="23" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-    </row>
-    <row r="24" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-    </row>
-    <row r="25" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-    </row>
-    <row r="26" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-    </row>
-    <row r="27" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-    </row>
-    <row r="28" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-    </row>
-    <row r="29" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-    </row>
-    <row r="30" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-    </row>
-    <row r="31" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-    </row>
-    <row r="32" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
+    <row r="22" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+    </row>
+    <row r="23" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+    </row>
+    <row r="24" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="N24" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+    </row>
+    <row r="25" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+    </row>
+    <row r="26" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="N26" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+    </row>
+    <row r="27" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="N27" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M28" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="N28" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+    </row>
+    <row r="29" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M29" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+    </row>
+    <row r="30" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M30" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="N30" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+    </row>
+    <row r="31" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M31" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="N31" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+    </row>
+    <row r="32" spans="1:19" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="N32" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
     </row>
     <row r="33" spans="1:19" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
@@ -27633,8 +28084,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27683,7 +28134,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>84</v>
@@ -27705,7 +28156,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>86</v>
@@ -27826,7 +28277,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>90</v>
@@ -27837,7 +28288,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>90</v>
@@ -27848,7 +28299,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>91</v>
@@ -27892,7 +28343,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>66</v>
@@ -27987,7 +28438,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>103</v>
